--- a/docs/sped/validation reports/San Luis Valley/Enrich-ETL-Data-Validation-Report-San Luis Valley-Iteration-5.xlsx
+++ b/docs/sped/validation reports/San Luis Valley/Enrich-ETL-Data-Validation-Report-San Luis Valley-Iteration-5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="54">
   <si>
     <t>File Type</t>
   </si>
@@ -194,6 +194,12 @@
   <si>
     <t xml:space="preserve">1.Some StudentRefID did not exist in Student file, but it existed in TeamMember File.
 </t>
+  </si>
+  <si>
+    <t>Some Student RefID was missing in Studenent file</t>
+  </si>
+  <si>
+    <t>%Good</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -680,84 +686,95 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -765,6 +782,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:F17" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" name="FileType"/>
+    <tableColumn id="2" name="Successful Records"/>
+    <tableColumn id="3" name="Failed Records"/>
+    <tableColumn id="4" name="Total Records"/>
+    <tableColumn id="5" name="%Good" dataDxfId="0"/>
+    <tableColumn id="6" name="Result"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1065,7 +1096,7 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
@@ -1102,306 +1133,306 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>140</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>140</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="47">
         <f>B7/D7</f>
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="47">
         <f t="shared" ref="E8:E12" si="0">B8/D8</f>
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>72</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>72</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>799</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>799</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>676</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>676</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>83</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>83</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>752</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16">
         <v>754</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="47">
         <f>B16/D16</f>
         <v>0.99734748010610075</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="6" t="s">
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>977</v>
       </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>977</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="47">
         <f t="shared" ref="E17" si="1">B17/D17</f>
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:6" hidden="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="28" spans="1:6" ht="21">
       <c r="A28" s="10" t="s">
@@ -1437,13 +1468,13 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" s="7" t="s">
@@ -1694,67 +1725,67 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="15"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:6" hidden="1">
-      <c r="A51" s="28"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
     </row>
     <row r="52" spans="1:6" ht="27" customHeight="1">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="58" spans="1:6" ht="21">
       <c r="A58" s="10" t="s">
@@ -1790,13 +1821,13 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
       <c r="A62" s="9"/>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1">
       <c r="A63" s="7" t="s">
@@ -2047,121 +2078,121 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
     </row>
     <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="15"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
     </row>
     <row r="80" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
     </row>
     <row r="81" spans="1:5" hidden="1">
-      <c r="A81" s="28"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
     </row>
     <row r="82" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A83" s="28"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
     </row>
     <row r="85" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A85" s="24"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="17"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="24"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
     </row>
     <row r="88" spans="1:5" ht="27" customHeight="1">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
     </row>
     <row r="89" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A89" s="28"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
     </row>
     <row r="93" spans="1:5" ht="21">
       <c r="A93" s="10" t="s">
@@ -2197,13 +2228,13 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" thickBot="1">
       <c r="A97" s="9"/>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="36"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="24"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" thickBot="1">
       <c r="A98" s="7" t="s">
@@ -2454,177 +2485,177 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="38" t="s">
+      <c r="B113" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="15"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
     </row>
     <row r="115" spans="1:5" ht="69" customHeight="1">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="40" t="s">
+      <c r="B115" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
     </row>
     <row r="116" spans="1:5" hidden="1">
-      <c r="A116" s="28"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
     </row>
     <row r="117" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A118" s="28"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
     </row>
     <row r="120" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A120" s="24"/>
+      <c r="A120" s="45"/>
       <c r="B120" s="17"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="24"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
     </row>
     <row r="123" spans="1:5" ht="27" customHeight="1">
-      <c r="A123" s="27" t="s">
+      <c r="A123" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A124" s="28"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="44" t="s">
+      <c r="A127" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
     </row>
     <row r="129" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B129" s="25" t="s">
+      <c r="B129" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
     </row>
     <row r="130" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A130" s="28"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
+      <c r="A130" s="30"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
     </row>
     <row r="131" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A131" s="34" t="s">
+      <c r="A131" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="B131" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
     </row>
     <row r="132" spans="1:5" ht="36" customHeight="1">
-      <c r="A132" s="28"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
     </row>
     <row r="142" spans="1:5" ht="21">
       <c r="A142" s="10" t="s">
@@ -2660,13 +2691,13 @@
     </row>
     <row r="146" spans="1:6" ht="15.75" thickBot="1">
       <c r="A146" s="9"/>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="36"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="24"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" thickBot="1">
       <c r="A147" s="7" t="s">
@@ -2917,121 +2948,121 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="37" t="s">
+      <c r="A161" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
     </row>
     <row r="163" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="15"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
     </row>
     <row r="164" spans="1:5" ht="69" customHeight="1">
-      <c r="A164" s="27" t="s">
+      <c r="A164" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="40" t="s">
+      <c r="B164" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C164" s="41"/>
-      <c r="D164" s="41"/>
-      <c r="E164" s="41"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
     </row>
     <row r="165" spans="1:5" hidden="1">
-      <c r="A165" s="28"/>
-      <c r="B165" s="42"/>
-      <c r="C165" s="43"/>
-      <c r="D165" s="43"/>
-      <c r="E165" s="43"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
+      <c r="E165" s="34"/>
     </row>
     <row r="166" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A166" s="34" t="s">
+      <c r="A166" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A167" s="28"/>
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="B168" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
     </row>
     <row r="169" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A169" s="24"/>
+      <c r="A169" s="45"/>
       <c r="B169" s="17"/>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="23" t="s">
+      <c r="A170" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B170" s="25" t="s">
+      <c r="B170" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="24"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
+      <c r="A171" s="45"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="41"/>
+      <c r="E171" s="41"/>
     </row>
     <row r="172" spans="1:5" ht="27" customHeight="1">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
     </row>
     <row r="173" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A173" s="28"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="31"/>
+      <c r="A173" s="30"/>
+      <c r="B173" s="37"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
     </row>
     <row r="176" spans="1:5" ht="21">
       <c r="A176" s="10" t="s">
@@ -3067,13 +3098,13 @@
     </row>
     <row r="180" spans="1:6" ht="15.75" thickBot="1">
       <c r="A180" s="9"/>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C180" s="35"/>
-      <c r="D180" s="35"/>
-      <c r="E180" s="35"/>
-      <c r="F180" s="36"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="24"/>
     </row>
     <row r="181" spans="1:6" ht="15.75" thickBot="1">
       <c r="A181" s="7" t="s">
@@ -3324,131 +3355,191 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="37" t="s">
+      <c r="A195" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B195" s="37"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="37"/>
-      <c r="E195" s="37"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
     </row>
     <row r="197" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="15"/>
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
-      <c r="E197" s="31"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
     </row>
     <row r="198" spans="1:5" ht="69" customHeight="1">
-      <c r="A198" s="27" t="s">
+      <c r="A198" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B198" s="40" t="s">
+      <c r="B198" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C198" s="41"/>
-      <c r="D198" s="41"/>
-      <c r="E198" s="41"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
     </row>
     <row r="199" spans="1:5" hidden="1">
-      <c r="A199" s="28"/>
-      <c r="B199" s="42"/>
-      <c r="C199" s="43"/>
-      <c r="D199" s="43"/>
-      <c r="E199" s="43"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="34"/>
     </row>
     <row r="200" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A200" s="34" t="s">
+      <c r="A200" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B200" s="31" t="s">
+      <c r="B200" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="31"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="28"/>
+      <c r="E200" s="28"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A201" s="28"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="31"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="28"/>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1">
-      <c r="A202" s="24" t="s">
+      <c r="A202" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B202" s="32" t="s">
+      <c r="B202" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C202" s="33"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
+      <c r="C202" s="39"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
     </row>
     <row r="203" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A203" s="24"/>
+      <c r="A203" s="45"/>
       <c r="B203" s="17"/>
       <c r="C203" s="18"/>
       <c r="D203" s="18"/>
       <c r="E203" s="18"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="23" t="s">
+      <c r="A204" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B204" s="25" t="s">
+      <c r="B204" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C204" s="25"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="25"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="36"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="24"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
+      <c r="A205" s="45"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="41"/>
+      <c r="D205" s="41"/>
+      <c r="E205" s="41"/>
     </row>
     <row r="206" spans="1:5" ht="27" customHeight="1">
-      <c r="A206" s="27" t="s">
+      <c r="A206" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B206" s="29" t="s">
+      <c r="B206" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
+      <c r="C206" s="36"/>
+      <c r="D206" s="36"/>
+      <c r="E206" s="36"/>
     </row>
     <row r="207" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A207" s="28"/>
-      <c r="B207" s="30"/>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31"/>
-      <c r="E207" s="31"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:E87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:E89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:E171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:E173"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:E205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:E207"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:E122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:E124"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:E132"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:E130"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:E53"/>
     <mergeCell ref="B83:E83"/>
@@ -3461,76 +3552,19 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:E132"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:E130"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:E122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:E124"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:E205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:E207"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:E201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:E171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:E173"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:E87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:E89"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
